--- a/Documentação/Planilhas/Conferencia_SKU.xlsx
+++ b/Documentação/Planilhas/Conferencia_SKU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="stg_sku_cmv" sheetId="104" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="388">
   <si>
     <t>201</t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t>Pegar a informação do CD_FABRICANTE e informar o código na coluna "Parceiro de Negócios". Pegar a segunda informação da coluna "Parceiro de Negócios"</t>
+  </si>
+  <si>
+    <t>whwmd2515m000</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,9 +1429,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,7 +1438,23 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1447,17 +1463,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1486,16 +1499,6 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1504,9 +1507,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,8 +1817,8 @@
   </sheetPr>
   <dimension ref="A1:AV38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1875,10 +1875,10 @@
       <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1886,11 +1886,13 @@
       <c r="AU2" s="4"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="4"/>
     </row>
@@ -2097,111 +2099,127 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="E30" s="15"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="E31" s="15"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="E32" s="15"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="15"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="15"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="15"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="15"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="15"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="15"/>
+      <c r="E38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B18:E20"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2215,9 +2233,7 @@
   </sheetPr>
   <dimension ref="A1:AV50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -2273,10 +2289,10 @@
       <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
@@ -2284,10 +2300,10 @@
       <c r="AU2" s="4"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>84</v>
       </c>
@@ -2858,175 +2874,181 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="E47" s="12"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="E48" s="12"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="12"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="12"/>
+      <c r="E50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="E39:E44"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H31:H37"/>
@@ -3036,12 +3058,6 @@
     <mergeCell ref="C31:C37"/>
     <mergeCell ref="E31:E37"/>
     <mergeCell ref="F28:G30"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="E39:E44"/>
     <mergeCell ref="B28:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3056,9 +3072,7 @@
   </sheetPr>
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3117,20 +3131,20 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>295</v>
       </c>
@@ -3286,7 +3300,7 @@
       <c r="AR6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="AT6" s="6" t="s">
@@ -3351,7 +3365,7 @@
       <c r="Q7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>239</v>
       </c>
       <c r="S7" s="7" t="s">
@@ -3384,10 +3398,10 @@
       <c r="AB7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AD7" s="9" t="s">
         <v>217</v>
       </c>
       <c r="AE7" s="7" t="s">
@@ -3414,10 +3428,10 @@
       <c r="AL7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AM7" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="AN7" s="10" t="s">
+      <c r="AN7" s="9" t="s">
         <v>131</v>
       </c>
       <c r="AO7" s="7" t="s">
@@ -4760,770 +4774,770 @@
       </c>
     </row>
     <row r="18" spans="1:48">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="22" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="16" t="s">
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16" t="s">
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16" t="s">
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="19" t="s">
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AP18" s="19" t="s">
+      <c r="AP18" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="AQ18" s="16" t="s">
+      <c r="AQ18" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="19" t="s">
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:48">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="23"/>
     </row>
     <row r="20" spans="1:48">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="23"/>
     </row>
     <row r="21" spans="1:48" ht="11.25" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="AB21" s="17" t="s">
+      <c r="AB21" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AC21" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD21" s="17" t="s">
+      <c r="AD21" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AE21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="AG21" s="17" t="s">
+      <c r="AG21" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="AH21" s="17" t="s">
+      <c r="AH21" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="AI21" s="17" t="s">
+      <c r="AI21" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="AJ21" s="17" t="s">
+      <c r="AJ21" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="AK21" s="17" t="s">
+      <c r="AK21" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="AL21" s="17" t="s">
+      <c r="AL21" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="AM21" s="17" t="s">
+      <c r="AM21" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AN21" s="17" t="s">
+      <c r="AN21" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AO21" s="17" t="s">
+      <c r="AO21" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="AP21" s="17" t="s">
+      <c r="AP21" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AQ21" s="17" t="s">
+      <c r="AQ21" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AR21" s="17" t="s">
+      <c r="AR21" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AS21" s="17" t="s">
+      <c r="AS21" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="AT21" s="17" t="s">
+      <c r="AT21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AU21" s="17" t="s">
+      <c r="AU21" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="17" t="s">
+      <c r="AV21" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21"/>
+      <c r="AT22" s="21"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="21"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="1:48">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
+      <c r="AT26" s="21"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="1:48">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
     </row>
     <row r="30" spans="1:48" ht="11.25" customHeight="1">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AH30" s="11" t="s">
+      <c r="AH30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AM30" s="12" t="s">
+      <c r="AM30" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="AN30" s="12" t="s">
+      <c r="AN30" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="AV30" s="20" t="s">
+      <c r="AV30" s="24" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:48">
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="AH31" s="11" t="s">
+      <c r="AH31" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AV31" s="20"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
+      <c r="AV31" s="24"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AH32" s="11" t="s">
+      <c r="AH32" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="12"/>
-      <c r="AV32" s="20"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AV32" s="24"/>
     </row>
     <row r="33" spans="11:48">
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="AH33" s="11" t="s">
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="AH33" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AV33" s="20"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AV33" s="24"/>
     </row>
     <row r="34" spans="11:48">
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AV34" s="20"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AV34" s="24"/>
     </row>
     <row r="35" spans="11:48">
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AV35" s="20"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AV35" s="24"/>
     </row>
     <row r="36" spans="11:48">
-      <c r="AV36" s="20"/>
+      <c r="AV36" s="24"/>
     </row>
     <row r="37" spans="11:48">
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AV37" s="20"/>
+      <c r="AV37" s="24"/>
     </row>
     <row r="38" spans="11:48">
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AV38" s="20"/>
+      <c r="AV38" s="24"/>
     </row>
     <row r="39" spans="11:48">
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="40" spans="11:48">
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AV40" s="1" t="s">
@@ -5531,7 +5545,7 @@
       </c>
     </row>
     <row r="41" spans="11:48">
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>270</v>
       </c>
       <c r="AV41" s="1" t="s">
@@ -5539,7 +5553,7 @@
       </c>
     </row>
     <row r="42" spans="11:48">
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>271</v>
       </c>
       <c r="AV42" s="1" t="s">
@@ -5547,7 +5561,7 @@
       </c>
     </row>
     <row r="43" spans="11:48">
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>272</v>
       </c>
       <c r="AV43" s="1" t="s">
@@ -5555,7 +5569,7 @@
       </c>
     </row>
     <row r="44" spans="11:48">
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AV44" s="1" t="s">
@@ -5563,7 +5577,7 @@
       </c>
     </row>
     <row r="45" spans="11:48">
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>274</v>
       </c>
       <c r="AV45" s="1" t="s">
@@ -5571,7 +5585,7 @@
       </c>
     </row>
     <row r="46" spans="11:48">
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>275</v>
       </c>
       <c r="AV46" s="1" t="s">
@@ -5579,60 +5593,12 @@
       </c>
     </row>
     <row r="47" spans="11:48">
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="V21:V28"/>
-    <mergeCell ref="U21:U28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="S21:S28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="X21:X28"/>
-    <mergeCell ref="AB21:AB28"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="AL21:AL28"/>
-    <mergeCell ref="AJ21:AJ28"/>
-    <mergeCell ref="AC21:AC28"/>
-    <mergeCell ref="Z21:Z28"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AA21:AA28"/>
-    <mergeCell ref="AE21:AE28"/>
-    <mergeCell ref="AD21:AD28"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AF21:AF28"/>
-    <mergeCell ref="AH21:AH28"/>
-    <mergeCell ref="AI21:AI28"/>
-    <mergeCell ref="AK21:AK28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AT21:AT28"/>
-    <mergeCell ref="AM21:AM28"/>
-    <mergeCell ref="AM30:AM35"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AN21:AN28"/>
-    <mergeCell ref="AN30:AN35"/>
     <mergeCell ref="AV18:AV20"/>
     <mergeCell ref="AV21:AV28"/>
     <mergeCell ref="AV30:AV38"/>
@@ -5649,6 +5615,54 @@
     <mergeCell ref="AR21:AR28"/>
     <mergeCell ref="AQ21:AQ28"/>
     <mergeCell ref="AU21:AU28"/>
+    <mergeCell ref="AS21:AS28"/>
+    <mergeCell ref="AT21:AT28"/>
+    <mergeCell ref="AM21:AM28"/>
+    <mergeCell ref="AM30:AM35"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AN21:AN28"/>
+    <mergeCell ref="AN30:AN35"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="W21:W28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="AL21:AL28"/>
+    <mergeCell ref="AJ21:AJ28"/>
+    <mergeCell ref="AC21:AC28"/>
+    <mergeCell ref="Z21:Z28"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AA21:AA28"/>
+    <mergeCell ref="AE21:AE28"/>
+    <mergeCell ref="AD21:AD28"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AF21:AF28"/>
+    <mergeCell ref="AH21:AH28"/>
+    <mergeCell ref="AI21:AI28"/>
+    <mergeCell ref="AK21:AK28"/>
+    <mergeCell ref="X21:X28"/>
+    <mergeCell ref="AB21:AB28"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="V21:V28"/>
+    <mergeCell ref="U21:U28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:S28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="C21:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5662,9 +5676,7 @@
   </sheetPr>
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS37" sqref="AS37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5723,20 +5735,20 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>295</v>
       </c>
@@ -5889,7 +5901,7 @@
       <c r="AR6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="AT6" s="6" t="s">
@@ -5902,149 +5914,149 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:48" s="31" customFormat="1">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:48" s="14" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="O7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="29" t="s">
+      <c r="O7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="U7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="V7" s="29" t="s">
+      <c r="Q7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="W7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="X7" s="29" t="s">
+      <c r="W7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="Z7" s="29" t="s">
+      <c r="Z7" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AA7" s="29" t="s">
+      <c r="AA7" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="AC7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH7" s="29" t="s">
+      <c r="AC7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="AI7" s="29" t="s">
+      <c r="AI7" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="AJ7" s="29" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="29" t="s">
+      <c r="AK7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="AL7" s="29" t="s">
+      <c r="AL7" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="AM7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN7" s="29" t="s">
+      <c r="AM7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO7" s="29" t="s">
+      <c r="AO7" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="AP7" s="29" t="s">
+      <c r="AP7" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AQ7" s="29" t="s">
+      <c r="AQ7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AR7" s="29" t="s">
+      <c r="AR7" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="AS7" s="30" t="s">
+      <c r="AS7" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AT7" s="29" t="s">
+      <c r="AT7" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="AU7" s="29" t="s">
+      <c r="AU7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AV7" s="29" t="s">
+      <c r="AV7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6181,7 +6193,7 @@
       <c r="AR8" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AS8" s="28" t="s">
+      <c r="AS8" s="11" t="s">
         <v>162</v>
       </c>
       <c r="AT8" s="4" t="s">
@@ -6327,7 +6339,7 @@
       <c r="AR9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AS9" s="28" t="s">
+      <c r="AS9" s="11" t="s">
         <v>162</v>
       </c>
       <c r="AT9" s="4" t="s">
@@ -6473,7 +6485,7 @@
       <c r="AR10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AS10" s="28" t="s">
+      <c r="AS10" s="11" t="s">
         <v>162</v>
       </c>
       <c r="AT10" s="4" t="s">
@@ -6619,7 +6631,7 @@
       <c r="AR11" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AS11" s="28" t="s">
+      <c r="AS11" s="11" t="s">
         <v>162</v>
       </c>
       <c r="AT11" s="4" t="s">
@@ -6765,7 +6777,7 @@
       <c r="AR12" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="AS12" s="35" t="s">
+      <c r="AS12" s="15" t="s">
         <v>332</v>
       </c>
       <c r="AT12" s="7" t="s">
@@ -6911,7 +6923,7 @@
       <c r="AR13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AS13" s="28" t="s">
+      <c r="AS13" s="11" t="s">
         <v>349</v>
       </c>
       <c r="AT13" s="4" t="s">
@@ -7057,7 +7069,7 @@
       <c r="AR14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AS14" s="28" t="s">
+      <c r="AS14" s="11" t="s">
         <v>367</v>
       </c>
       <c r="AT14" s="4" t="s">
@@ -7203,7 +7215,7 @@
       <c r="AR15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AS15" s="28" t="s">
+      <c r="AS15" s="11" t="s">
         <v>377</v>
       </c>
       <c r="AT15" s="4" t="s">
@@ -7349,7 +7361,7 @@
       <c r="AR16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AS16" s="28" t="s">
+      <c r="AS16" s="11" t="s">
         <v>377</v>
       </c>
       <c r="AT16" s="4" t="s">
@@ -7363,823 +7375,869 @@
       </c>
     </row>
     <row r="18" spans="1:48" ht="11.25" customHeight="1">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="22" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="16" t="s">
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="22" t="s">
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="26" t="s">
         <v>294</v>
       </c>
       <c r="AL18" s="32"/>
       <c r="AM18" s="32"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="19" t="s">
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="AP18" s="19" t="s">
+      <c r="AP18" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="AQ18" s="16" t="s">
+      <c r="AQ18" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="19" t="s">
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="11.25" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="28"/>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="19"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="23"/>
     </row>
     <row r="20" spans="1:48" ht="11.25" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="30"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="34"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="19"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="23"/>
     </row>
     <row r="21" spans="1:48" ht="11.25" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="AB21" s="17" t="s">
+      <c r="AB21" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AC21" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD21" s="17" t="s">
+      <c r="AD21" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AE21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="AG21" s="17" t="s">
+      <c r="AG21" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="AH21" s="17" t="s">
+      <c r="AH21" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="AI21" s="17" t="s">
+      <c r="AI21" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="AJ21" s="17" t="s">
+      <c r="AJ21" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="AK21" s="17" t="s">
+      <c r="AK21" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="AL21" s="17" t="s">
+      <c r="AL21" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="AM21" s="17" t="s">
+      <c r="AM21" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="AN21" s="17" t="s">
+      <c r="AN21" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="AO21" s="17" t="s">
+      <c r="AO21" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="AP21" s="17" t="s">
+      <c r="AP21" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AQ21" s="17" t="s">
+      <c r="AQ21" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AR21" s="17" t="s">
+      <c r="AR21" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AS21" s="17" t="s">
+      <c r="AS21" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="AT21" s="17" t="s">
+      <c r="AT21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AU21" s="17" t="s">
+      <c r="AU21" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="17" t="s">
+      <c r="AV21" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21"/>
+      <c r="AT22" s="21"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="21"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
     </row>
     <row r="26" spans="1:48">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
+      <c r="AT26" s="21"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
     </row>
     <row r="28" spans="1:48">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
     </row>
     <row r="30" spans="1:48" ht="11.25" customHeight="1">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AC30" s="17" t="s">
+      <c r="AC30" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="AJ30" s="11" t="s">
+      <c r="AJ30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AV30" s="12" t="s">
+      <c r="AV30" s="16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:48">
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="AC31" s="17"/>
-      <c r="AJ31" s="11" t="s">
+      <c r="AC31" s="21"/>
+      <c r="AJ31" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AV31" s="12"/>
+      <c r="AV31" s="16"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AC32" s="17"/>
-      <c r="AJ32" s="11" t="s">
+      <c r="AC32" s="21"/>
+      <c r="AJ32" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="AV32" s="12"/>
+      <c r="AV32" s="16"/>
     </row>
     <row r="33" spans="11:48">
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="AC33" s="17"/>
-      <c r="AJ33" s="11" t="s">
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="AC33" s="21"/>
+      <c r="AJ33" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AV33" s="12"/>
+      <c r="AV33" s="16"/>
     </row>
     <row r="34" spans="11:48">
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="AC34" s="17"/>
-      <c r="AV34" s="12"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="AC34" s="21"/>
+      <c r="AV34" s="16"/>
     </row>
     <row r="35" spans="11:48">
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="AC35" s="17"/>
-      <c r="AV35" s="12"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="AC35" s="21"/>
+      <c r="AV35" s="16"/>
     </row>
     <row r="36" spans="11:48">
-      <c r="AC36" s="17"/>
-      <c r="AV36" s="12"/>
+      <c r="AC36" s="21"/>
+      <c r="AV36" s="16"/>
     </row>
     <row r="37" spans="11:48">
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AC37" s="17"/>
-      <c r="AV37" s="12"/>
+      <c r="AC37" s="21"/>
+      <c r="AV37" s="16"/>
     </row>
     <row r="38" spans="11:48">
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AV38" s="12"/>
+      <c r="AV38" s="16"/>
     </row>
     <row r="39" spans="11:48">
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="40" spans="11:48">
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AV40" s="11" t="s">
+      <c r="AV40" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="11:48">
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AV41" s="11" t="s">
+      <c r="AV41" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="42" spans="11:48">
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AV42" s="11" t="s">
+      <c r="AV42" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="43" spans="11:48">
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AV43" s="11" t="s">
+      <c r="AV43" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="44" spans="11:48">
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AV44" s="11" t="s">
+      <c r="AV44" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="45" spans="11:48">
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AV45" s="11" t="s">
+      <c r="AV45" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="46" spans="11:48">
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AV46" s="11" t="s">
+      <c r="AV46" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="47" spans="11:48">
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B18:AE20"/>
+    <mergeCell ref="AF18:AG20"/>
+    <mergeCell ref="AH18:AJ20"/>
+    <mergeCell ref="AO18:AO20"/>
+    <mergeCell ref="AP18:AP20"/>
+    <mergeCell ref="AQ18:AU20"/>
+    <mergeCell ref="AV18:AV20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="AK18:AN20"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="AC21:AC28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:S28"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="U21:U28"/>
+    <mergeCell ref="V21:V28"/>
+    <mergeCell ref="W21:W28"/>
+    <mergeCell ref="X21:X28"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="Z21:Z28"/>
+    <mergeCell ref="AA21:AA28"/>
+    <mergeCell ref="AB21:AB28"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AD21:AD28"/>
+    <mergeCell ref="AE21:AE28"/>
+    <mergeCell ref="AF21:AF28"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AJ21:AJ28"/>
+    <mergeCell ref="AH21:AH28"/>
     <mergeCell ref="AV21:AV28"/>
     <mergeCell ref="K30:K35"/>
     <mergeCell ref="L30:L35"/>
@@ -8196,52 +8254,6 @@
     <mergeCell ref="AL21:AL28"/>
     <mergeCell ref="AM21:AM28"/>
     <mergeCell ref="AN21:AN28"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AD21:AD28"/>
-    <mergeCell ref="AE21:AE28"/>
-    <mergeCell ref="AF21:AF28"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AJ21:AJ28"/>
-    <mergeCell ref="AH21:AH28"/>
-    <mergeCell ref="X21:X28"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="Z21:Z28"/>
-    <mergeCell ref="AA21:AA28"/>
-    <mergeCell ref="AB21:AB28"/>
-    <mergeCell ref="AC21:AC28"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="S21:S28"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="U21:U28"/>
-    <mergeCell ref="V21:V28"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="AO18:AO20"/>
-    <mergeCell ref="AP18:AP20"/>
-    <mergeCell ref="AQ18:AU20"/>
-    <mergeCell ref="AV18:AV20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B18:AE20"/>
-    <mergeCell ref="AF18:AG20"/>
-    <mergeCell ref="AH18:AJ20"/>
-    <mergeCell ref="AK18:AN20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8252,9 +8264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -8655,7 +8665,7 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F47" t="str">

--- a/Documentação/Planilhas/Conferencia_SKU.xlsx
+++ b/Documentação/Planilhas/Conferencia_SKU.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="395">
   <si>
     <t>201</t>
   </si>
@@ -915,96 +915,9 @@
     <t>DENWA VIDEO FOTO SOM COM.E IMP</t>
   </si>
   <si>
-    <t>2014-09-02 08:45:18.000</t>
-  </si>
-  <si>
-    <t>2014-05-22 16:08:08.000</t>
-  </si>
-  <si>
-    <t>000000840</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>2014-09-11 16:57:38.000</t>
-  </si>
-  <si>
-    <t>2014-05-22 16:08:13.000</t>
-  </si>
-  <si>
-    <t>163.0000</t>
-  </si>
-  <si>
-    <t>2014-07-16 15:34:22.000</t>
-  </si>
-  <si>
-    <t>2014-05-22 16:08:14.000</t>
-  </si>
-  <si>
-    <t>201.0000</t>
-  </si>
-  <si>
-    <t>2014-07-29 18:21:04.000</t>
-  </si>
-  <si>
-    <t>2014-05-22 16:08:16.000</t>
-  </si>
-  <si>
-    <t>2014-07-05 10:41:50.000</t>
-  </si>
-  <si>
-    <t>2014-05-22 16:08:17.000</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>100046</t>
-  </si>
-  <si>
-    <t>9788522106745</t>
-  </si>
-  <si>
-    <t>RELACOES COM O CONSUMIDOR SERI</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>49059900</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>0.3270</t>
-  </si>
-  <si>
-    <t>2014-05-30 10:10:34.000</t>
-  </si>
-  <si>
-    <t>2014-05-22 16:19:22.000</t>
-  </si>
-  <si>
     <t>000000366</t>
   </si>
   <si>
-    <t>SUS</t>
-  </si>
-  <si>
-    <t>27.5300</t>
-  </si>
-  <si>
     <t>12615026000123</t>
   </si>
   <si>
@@ -1014,165 +927,9 @@
     <t>AYOBA DISTRIBUIDORA E IMPORTADORA L</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>0.0213</t>
-  </si>
-  <si>
-    <t>13422427</t>
-  </si>
-  <si>
-    <t>7898471191821</t>
-  </si>
-  <si>
-    <t>MOCHILA AUCKLAND 30L MA3000 VD</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>42029200</t>
-  </si>
-  <si>
-    <t>82771</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>0.9000</t>
-  </si>
-  <si>
-    <t>2014-07-24 14:41:24.000</t>
-  </si>
-  <si>
-    <t>2014-06-17 17:24:37.000</t>
-  </si>
-  <si>
-    <t>000000022</t>
-  </si>
-  <si>
-    <t>A00200</t>
-  </si>
-  <si>
-    <t>88.4000</t>
-  </si>
-  <si>
-    <t>52221157000140</t>
-  </si>
-  <si>
-    <t>GUEPARD IMPORTAD</t>
-  </si>
-  <si>
-    <t>Guepard Importadora e Exportadora S</t>
-  </si>
-  <si>
-    <t>0.4900</t>
-  </si>
-  <si>
-    <t>0.3200</t>
-  </si>
-  <si>
     <t>0.0800</t>
   </si>
   <si>
-    <t>13422479</t>
-  </si>
-  <si>
-    <t>7898947817149</t>
-  </si>
-  <si>
-    <t>CAMERA POWERSHOT 6193B027AA A2</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>85258029</t>
-  </si>
-  <si>
-    <t>6193B027AA</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>0.3700</t>
-  </si>
-  <si>
-    <t>2014-06-20 15:20:48.000</t>
-  </si>
-  <si>
-    <t>2014-06-20 15:20:45.000</t>
-  </si>
-  <si>
-    <t>000000924</t>
-  </si>
-  <si>
-    <t>215.7900</t>
-  </si>
-  <si>
-    <t>46266771000711</t>
-  </si>
-  <si>
-    <t>CANON DO BRASIL</t>
-  </si>
-  <si>
-    <t>CANON DO BRASIL IND E COM LTDA</t>
-  </si>
-  <si>
-    <t>0.1700</t>
-  </si>
-  <si>
-    <t>0.0600</t>
-  </si>
-  <si>
-    <t>13422480</t>
-  </si>
-  <si>
-    <t>7898947817293</t>
-  </si>
-  <si>
-    <t>CAMERA POWERSHOT 6179B001AA A8</t>
-  </si>
-  <si>
-    <t>6179B001AA</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>2014-06-20 15:20:51.000</t>
-  </si>
-  <si>
-    <t>2014-06-20 15:20:50.000</t>
-  </si>
-  <si>
-    <t>161.7100</t>
-  </si>
-  <si>
-    <t>0.1600</t>
-  </si>
-  <si>
-    <t>13422481</t>
-  </si>
-  <si>
-    <t>7898947817279</t>
-  </si>
-  <si>
-    <t>CAMERA POWERSHOT 6180B001AA A8</t>
-  </si>
-  <si>
-    <t>6180B001AA</t>
-  </si>
-  <si>
-    <t>2014-06-20 15:20:53.000</t>
-  </si>
-  <si>
-    <t>2014-06-20 15:20:52.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ir para a  sessão "tcmcs0160m000" (Fabricantes)  e informar o CD_FABRICANTE na primeira lacula da coluna Fabricante e pedir o detalhamento do mesmo. Pegar a informação do "Parceiro de Negócios Fornecedor" </t>
   </si>
   <si>
@@ -1180,6 +937,273 @@
   </si>
   <si>
     <t>Pegar a informação do CD_FABRICANTE e informar o código na coluna "Parceiro de Negócios". Pegar a segunda informação da coluna "Parceiro de Negócios"</t>
+  </si>
+  <si>
+    <t>866803</t>
+  </si>
+  <si>
+    <t>7899307917127</t>
+  </si>
+  <si>
+    <t>DVD POCAHONTAS 2012</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>63049300</t>
+  </si>
+  <si>
+    <t>200000525</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:59:01.000</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:59:00.000</t>
+  </si>
+  <si>
+    <t>000001051</t>
+  </si>
+  <si>
+    <t>13.4700</t>
+  </si>
+  <si>
+    <t>67562884000491</t>
+  </si>
+  <si>
+    <t>SONOPRESS RIMO I</t>
+  </si>
+  <si>
+    <t>SONOPRESS RIMO INDUSTRIA E COMERCIO</t>
+  </si>
+  <si>
+    <t>0.1900</t>
+  </si>
+  <si>
+    <t>851214</t>
+  </si>
+  <si>
+    <t>7898945383592</t>
+  </si>
+  <si>
+    <t>CARRINHO DE PASSEIO UMBRELLA P</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>CARRINHO PASSEIO</t>
+  </si>
+  <si>
+    <t>FORA DE LINHA NOVA PONTOCOM</t>
+  </si>
+  <si>
+    <t>6.8000</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:57:49.000</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:57:48.000</t>
+  </si>
+  <si>
+    <t>133.2500</t>
+  </si>
+  <si>
+    <t>0.6700</t>
+  </si>
+  <si>
+    <t>0.5000</t>
+  </si>
+  <si>
+    <t>1.0300</t>
+  </si>
+  <si>
+    <t>831261</t>
+  </si>
+  <si>
+    <t>7897033040164</t>
+  </si>
+  <si>
+    <t>REL PROTECTION ANA DIG 4016391</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>ITEM NOVAMENTE DISPONÍVEL NO MERCADO</t>
+  </si>
+  <si>
+    <t>0.1650</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:53:16.000</t>
+  </si>
+  <si>
+    <t>000000059</t>
+  </si>
+  <si>
+    <t>104.7200</t>
+  </si>
+  <si>
+    <t>63630388000124</t>
+  </si>
+  <si>
+    <t>CHRONOS INDUSTRI</t>
+  </si>
+  <si>
+    <t>CHRONOS INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>0.0950</t>
+  </si>
+  <si>
+    <t>831258</t>
+  </si>
+  <si>
+    <t>7897033040133</t>
+  </si>
+  <si>
+    <t>RELOGIO DIG 4013491F FEM PR SU</t>
+  </si>
+  <si>
+    <t>FEMININO</t>
+  </si>
+  <si>
+    <t>0.1300</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:53:15.000</t>
+  </si>
+  <si>
+    <t>32.5000</t>
+  </si>
+  <si>
+    <t>81839</t>
+  </si>
+  <si>
+    <t>7899307914324</t>
+  </si>
+  <si>
+    <t>DVD A CASA DO MICKEY MOUSE A L</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>200000347</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:51:04.000</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:51:03.000</t>
+  </si>
+  <si>
+    <t>74769</t>
+  </si>
+  <si>
+    <t>7899307906169</t>
+  </si>
+  <si>
+    <t>DVD AS CRONICAS DE NARNIA O LE</t>
+  </si>
+  <si>
+    <t>100021271</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:43:25.000</t>
+  </si>
+  <si>
+    <t>74683</t>
+  </si>
+  <si>
+    <t>7899307911019</t>
+  </si>
+  <si>
+    <t>DVD A ESPADA ERA A LEI EDICAO</t>
+  </si>
+  <si>
+    <t>200000065</t>
+  </si>
+  <si>
+    <t>74622</t>
+  </si>
+  <si>
+    <t>7899307913457</t>
+  </si>
+  <si>
+    <t>DVD SANTA BUDDIES UMA AVENTURA</t>
+  </si>
+  <si>
+    <t>200000270</t>
+  </si>
+  <si>
+    <t>NEGOCIAÇÃO PONTUAL (PHASE OUT)</t>
+  </si>
+  <si>
+    <t>2015-02-11 23:43:24.000</t>
+  </si>
+  <si>
+    <t>11.4400</t>
+  </si>
+  <si>
+    <t>74606</t>
+  </si>
+  <si>
+    <t>7899307904493</t>
+  </si>
+  <si>
+    <t>DVD ACONTECEU DE NOVO NO NATAL</t>
+  </si>
+  <si>
+    <t>100013092</t>
+  </si>
+  <si>
+    <t>ITEM NOVAMENTE DISPONIVEL NO MERCADO</t>
+  </si>
+  <si>
+    <t>10.1700</t>
+  </si>
+  <si>
+    <t>74556</t>
+  </si>
+  <si>
+    <t>7899307913044</t>
+  </si>
+  <si>
+    <t>DVD WDT CRONOLOGIA DO DONALD D</t>
+  </si>
+  <si>
+    <t>200000238</t>
+  </si>
+  <si>
+    <t>20.1700</t>
+  </si>
+  <si>
+    <t>Fixo 1</t>
+  </si>
+  <si>
+    <t>Problema com Timezone</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,7 +1462,17 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1447,17 +1481,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1486,16 +1517,6 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,7 +1526,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1875,10 +1902,10 @@
       <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1886,10 +1913,10 @@
       <c r="AU2" s="4"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="4"/>
@@ -2102,106 +2129,106 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="E30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="E31" s="15"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="E32" s="15"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="15"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="15"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="15"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="15"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="15"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="15"/>
+      <c r="E38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2273,10 +2300,10 @@
       <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
@@ -2284,10 +2311,10 @@
       <c r="AU2" s="4"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>84</v>
       </c>
@@ -2858,175 +2885,181 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="E47" s="12"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="E48" s="12"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="12"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="12"/>
+      <c r="E50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="E39:E44"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H31:H37"/>
@@ -3036,12 +3069,6 @@
     <mergeCell ref="C31:C37"/>
     <mergeCell ref="E31:E37"/>
     <mergeCell ref="F28:G30"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="E39:E44"/>
     <mergeCell ref="B28:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3056,8 +3083,8 @@
   </sheetPr>
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3117,20 +3144,20 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>295</v>
       </c>
@@ -4760,674 +4787,674 @@
       </c>
     </row>
     <row r="18" spans="1:48">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="22" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="16" t="s">
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16" t="s">
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16" t="s">
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="19" t="s">
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="AP18" s="19" t="s">
+      <c r="AP18" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="AQ18" s="16" t="s">
+      <c r="AQ18" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="19" t="s">
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:48">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="22"/>
     </row>
     <row r="20" spans="1:48">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="19"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
+      <c r="AT20" s="21"/>
+      <c r="AU20" s="21"/>
+      <c r="AV20" s="22"/>
     </row>
     <row r="21" spans="1:48" ht="11.25" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AB21" s="17" t="s">
+      <c r="AB21" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AC21" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AD21" s="17" t="s">
+      <c r="AD21" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AE21" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG21" s="17" t="s">
+      <c r="AG21" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AH21" s="17" t="s">
+      <c r="AH21" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AI21" s="17" t="s">
+      <c r="AI21" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="AJ21" s="17" t="s">
+      <c r="AJ21" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="AK21" s="17" t="s">
+      <c r="AK21" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="AL21" s="17" t="s">
+      <c r="AL21" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AM21" s="17" t="s">
+      <c r="AM21" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="AN21" s="17" t="s">
+      <c r="AN21" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="AO21" s="17" t="s">
+      <c r="AO21" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="AP21" s="17" t="s">
+      <c r="AP21" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="AQ21" s="17" t="s">
+      <c r="AQ21" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="AR21" s="17" t="s">
+      <c r="AR21" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="AS21" s="17" t="s">
+      <c r="AS21" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="AT21" s="17" t="s">
+      <c r="AT21" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="AU21" s="17" t="s">
+      <c r="AU21" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="17" t="s">
+      <c r="AV21" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
     </row>
     <row r="26" spans="1:48">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
     </row>
     <row r="28" spans="1:48">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
     </row>
     <row r="30" spans="1:48" ht="11.25" customHeight="1">
       <c r="E30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="15" t="s">
         <v>265</v>
       </c>
       <c r="M30" s="11" t="s">
@@ -5436,13 +5463,13 @@
       <c r="AH30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AM30" s="12" t="s">
+      <c r="AM30" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AN30" s="12" t="s">
+      <c r="AN30" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AV30" s="20" t="s">
+      <c r="AV30" s="23" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5450,72 +5477,72 @@
       <c r="E31" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="11" t="s">
         <v>226</v>
       </c>
       <c r="AH31" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AV31" s="20"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AV31" s="23"/>
     </row>
     <row r="32" spans="1:48">
       <c r="E32" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="11" t="s">
         <v>227</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="12"/>
-      <c r="AV32" s="20"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AV32" s="23"/>
     </row>
     <row r="33" spans="11:48">
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
       <c r="AH33" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AV33" s="20"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AV33" s="23"/>
     </row>
     <row r="34" spans="11:48">
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AV34" s="20"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AV34" s="23"/>
     </row>
     <row r="35" spans="11:48">
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AV35" s="20"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AV35" s="23"/>
     </row>
     <row r="36" spans="11:48">
-      <c r="AV36" s="20"/>
+      <c r="AV36" s="23"/>
     </row>
     <row r="37" spans="11:48">
       <c r="L37" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="AV37" s="20"/>
+      <c r="AV37" s="23"/>
     </row>
     <row r="38" spans="11:48">
       <c r="L38" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="AV38" s="20"/>
+      <c r="AV38" s="23"/>
     </row>
     <row r="39" spans="11:48">
       <c r="L39" s="11" t="s">
@@ -5585,54 +5612,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="V21:V28"/>
-    <mergeCell ref="U21:U28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="S21:S28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="X21:X28"/>
-    <mergeCell ref="AB21:AB28"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="AL21:AL28"/>
-    <mergeCell ref="AJ21:AJ28"/>
-    <mergeCell ref="AC21:AC28"/>
-    <mergeCell ref="Z21:Z28"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AA21:AA28"/>
-    <mergeCell ref="AE21:AE28"/>
-    <mergeCell ref="AD21:AD28"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AF21:AF28"/>
-    <mergeCell ref="AH21:AH28"/>
-    <mergeCell ref="AI21:AI28"/>
-    <mergeCell ref="AK21:AK28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="K30:K35"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="AS21:AS28"/>
-    <mergeCell ref="AT21:AT28"/>
-    <mergeCell ref="AM21:AM28"/>
-    <mergeCell ref="AM30:AM35"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AN21:AN28"/>
-    <mergeCell ref="AN30:AN35"/>
     <mergeCell ref="AV18:AV20"/>
     <mergeCell ref="AV21:AV28"/>
     <mergeCell ref="AV30:AV38"/>
@@ -5649,6 +5628,54 @@
     <mergeCell ref="AR21:AR28"/>
     <mergeCell ref="AQ21:AQ28"/>
     <mergeCell ref="AU21:AU28"/>
+    <mergeCell ref="AS21:AS28"/>
+    <mergeCell ref="AT21:AT28"/>
+    <mergeCell ref="AM21:AM28"/>
+    <mergeCell ref="AM30:AM35"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AN21:AN28"/>
+    <mergeCell ref="AN30:AN35"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="W21:W28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="AL21:AL28"/>
+    <mergeCell ref="AJ21:AJ28"/>
+    <mergeCell ref="AC21:AC28"/>
+    <mergeCell ref="Z21:Z28"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AA21:AA28"/>
+    <mergeCell ref="AE21:AE28"/>
+    <mergeCell ref="AD21:AD28"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AF21:AF28"/>
+    <mergeCell ref="AH21:AH28"/>
+    <mergeCell ref="AI21:AI28"/>
+    <mergeCell ref="AK21:AK28"/>
+    <mergeCell ref="X21:X28"/>
+    <mergeCell ref="AB21:AB28"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="V21:V28"/>
+    <mergeCell ref="U21:U28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:S28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="C21:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5658,12 +5685,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS37" sqref="AS37"/>
+    <sheetView tabSelected="1" topLeftCell="Y10" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5723,26 +5750,34 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>295</v>
       </c>
       <c r="W3" s="1"/>
       <c r="AH3" s="5"/>
       <c r="AK3" s="5"/>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="AA4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="5" spans="1:48">
       <c r="F5" s="4"/>
@@ -5902,194 +5937,194 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:48" s="31" customFormat="1">
-      <c r="A7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" s="29" t="s">
+    <row r="7" spans="1:48" s="14" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="29" t="s">
+      <c r="K7" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="U7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="V7" s="29" t="s">
+      <c r="Q7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="V7" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="W7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="X7" s="29" t="s">
+      <c r="W7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH7" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI7" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ7" s="29" t="s">
+      <c r="Y7" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA7" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB7" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC7" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI7" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL7" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN7" s="29" t="s">
+      <c r="AK7" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL7" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM7" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN7" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP7" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ7" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="AO7" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP7" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR7" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="AS7" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT7" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU7" s="29" t="s">
+      <c r="AR7" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS7" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="AT7" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU7" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="AV7" s="29" t="s">
+      <c r="AV7" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>16</v>
@@ -6101,7 +6136,7 @@
         <v>16</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>16</v>
@@ -6122,19 +6157,19 @@
         <v>147</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>140</v>
@@ -6149,28 +6184,28 @@
         <v>42</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="AJ8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AP8" s="4" t="s">
         <v>142</v>
@@ -6179,16 +6214,16 @@
         <v>141</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="AS8" s="28" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="AV8" s="4" t="s">
         <v>13</v>
@@ -6196,46 +6231,46 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>16</v>
@@ -6247,7 +6282,7 @@
         <v>16</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>16</v>
@@ -6268,19 +6303,19 @@
         <v>147</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>140</v>
@@ -6295,28 +6330,28 @@
         <v>42</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="AJ9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AP9" s="4" t="s">
         <v>142</v>
@@ -6325,16 +6360,16 @@
         <v>141</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS9" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="AV9" s="4" t="s">
         <v>13</v>
@@ -6342,46 +6377,46 @@
     </row>
     <row r="10" spans="1:48">
       <c r="A10" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>176</v>
+        <v>354</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>16</v>
@@ -6393,7 +6428,7 @@
         <v>16</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>16</v>
@@ -6414,19 +6449,19 @@
         <v>147</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>140</v>
@@ -6441,28 +6476,28 @@
         <v>42</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="AJ10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AM10" s="4" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AP10" s="4" t="s">
         <v>142</v>
@@ -6473,14 +6508,14 @@
       <c r="AR10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AS10" s="28" t="s">
-        <v>162</v>
+      <c r="AS10" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>13</v>
@@ -6488,46 +6523,46 @@
     </row>
     <row r="11" spans="1:48">
       <c r="A11" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>180</v>
+        <v>361</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>181</v>
+        <v>363</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>16</v>
@@ -6560,19 +6595,19 @@
         <v>147</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>140</v>
@@ -6587,28 +6622,28 @@
         <v>42</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AJ11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AP11" s="4" t="s">
         <v>142</v>
@@ -6617,13 +6652,13 @@
         <v>141</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS11" s="28" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AU11" s="4" t="s">
         <v>161</v>
@@ -6633,175 +6668,175 @@
       </c>
     </row>
     <row r="12" spans="1:48">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC12" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="AD12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI12" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="AJ12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK12" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="AL12" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="AM12" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="AR12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS12" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="AL12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="AN12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="AO12" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP12" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR12" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="AS12" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="AT12" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU12" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="AV12" s="7" t="s">
+      <c r="AT12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:48">
       <c r="A13" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>362</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
@@ -6810,16 +6845,16 @@
         <v>141</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>16</v>
@@ -6849,22 +6884,22 @@
         <v>16</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>339</v>
+        <v>147</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>340</v>
+        <v>145</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>340</v>
+        <v>145</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>140</v>
@@ -6873,31 +6908,31 @@
         <v>16</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="AG13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="AJ13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="AO13" s="4" t="s">
         <v>42</v>
@@ -6911,14 +6946,14 @@
       <c r="AR13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AS13" s="28" t="s">
-        <v>349</v>
+      <c r="AS13" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>350</v>
+        <v>144</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="AV13" s="4" t="s">
         <v>13</v>
@@ -6926,46 +6961,46 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>16</v>
@@ -6977,19 +7012,19 @@
         <v>16</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>140</v>
+        <v>379</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>140</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>16</v>
@@ -6998,22 +7033,22 @@
         <v>147</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>359</v>
+        <v>145</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>359</v>
+        <v>145</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>16</v>
@@ -7025,28 +7060,28 @@
         <v>42</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AJ14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="AP14" s="4" t="s">
         <v>142</v>
@@ -7055,16 +7090,16 @@
         <v>141</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS14" s="28" t="s">
-        <v>367</v>
+        <v>137</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="AT14" s="4" t="s">
         <v>144</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="AV14" s="4" t="s">
         <v>13</v>
@@ -7072,46 +7107,46 @@
     </row>
     <row r="15" spans="1:48">
       <c r="A15" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>16</v>
@@ -7123,19 +7158,19 @@
         <v>16</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>140</v>
+        <v>386</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>140</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>16</v>
@@ -7144,22 +7179,22 @@
         <v>147</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>16</v>
@@ -7171,28 +7206,28 @@
         <v>42</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AJ15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="AP15" s="4" t="s">
         <v>142</v>
@@ -7201,16 +7236,16 @@
         <v>141</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS15" s="28" t="s">
-        <v>377</v>
+        <v>137</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="AT15" s="4" t="s">
         <v>144</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="AV15" s="4" t="s">
         <v>13</v>
@@ -7218,46 +7253,46 @@
     </row>
     <row r="16" spans="1:48">
       <c r="A16" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>16</v>
@@ -7275,13 +7310,13 @@
         <v>16</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="U16" s="4" t="s">
         <v>140</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>16</v>
@@ -7290,22 +7325,22 @@
         <v>147</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>16</v>
@@ -7317,28 +7352,28 @@
         <v>42</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AJ16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="AP16" s="4" t="s">
         <v>142</v>
@@ -7347,700 +7382,700 @@
         <v>141</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS16" s="28" t="s">
-        <v>377</v>
+        <v>137</v>
+      </c>
+      <c r="AS16" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="AT16" s="4" t="s">
         <v>144</v>
       </c>
       <c r="AU16" s="4" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="AV16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="11.25" customHeight="1">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="22" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="16" t="s">
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="22" t="s">
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="19" t="s">
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="AP18" s="19" t="s">
+      <c r="AP18" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="AQ18" s="16" t="s">
+      <c r="AQ18" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="19" t="s">
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="11.25" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="19"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="22"/>
     </row>
     <row r="20" spans="1:48" ht="11.25" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="19"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
+      <c r="AT20" s="21"/>
+      <c r="AU20" s="21"/>
+      <c r="AV20" s="22"/>
     </row>
     <row r="21" spans="1:48" ht="11.25" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AB21" s="17" t="s">
+      <c r="AB21" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AC21" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AD21" s="17" t="s">
+      <c r="AD21" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AE21" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG21" s="17" t="s">
+      <c r="AG21" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AH21" s="17" t="s">
+      <c r="AH21" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="AI21" s="17" t="s">
+      <c r="AI21" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="AJ21" s="17" t="s">
+      <c r="AJ21" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AK21" s="17" t="s">
+      <c r="AK21" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="AL21" s="17" t="s">
+      <c r="AL21" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AM21" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN21" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO21" s="17" t="s">
+      <c r="AM21" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN21" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO21" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="AP21" s="17" t="s">
+      <c r="AP21" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="AQ21" s="17" t="s">
+      <c r="AQ21" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="AR21" s="17" t="s">
+      <c r="AR21" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="AS21" s="17" t="s">
+      <c r="AS21" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="AT21" s="17" t="s">
+      <c r="AT21" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="AU21" s="17" t="s">
+      <c r="AU21" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="AV21" s="17" t="s">
+      <c r="AV21" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
     </row>
     <row r="26" spans="1:48">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
     </row>
     <row r="28" spans="1:48">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
     </row>
     <row r="30" spans="1:48" ht="11.25" customHeight="1">
       <c r="E30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="15" t="s">
         <v>265</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AC30" s="17" t="s">
-        <v>384</v>
+      <c r="AC30" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="AJ30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AV30" s="12" t="s">
+      <c r="AV30" s="15" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8048,69 +8083,69 @@
       <c r="E31" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AC31" s="17"/>
+      <c r="AC31" s="20"/>
       <c r="AJ31" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="AV31" s="12"/>
+      <c r="AV31" s="15"/>
     </row>
     <row r="32" spans="1:48">
       <c r="E32" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AC32" s="17"/>
+      <c r="AC32" s="20"/>
       <c r="AJ32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="AV32" s="12"/>
+      <c r="AV32" s="15"/>
     </row>
     <row r="33" spans="11:48">
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="AC33" s="17"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="AC33" s="20"/>
       <c r="AJ33" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="AV33" s="12"/>
+      <c r="AV33" s="15"/>
     </row>
     <row r="34" spans="11:48">
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="AC34" s="17"/>
-      <c r="AV34" s="12"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="AC34" s="20"/>
+      <c r="AV34" s="15"/>
     </row>
     <row r="35" spans="11:48">
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="AC35" s="17"/>
-      <c r="AV35" s="12"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="AC35" s="20"/>
+      <c r="AV35" s="15"/>
     </row>
     <row r="36" spans="11:48">
-      <c r="AC36" s="17"/>
-      <c r="AV36" s="12"/>
+      <c r="AC36" s="20"/>
+      <c r="AV36" s="15"/>
     </row>
     <row r="37" spans="11:48">
       <c r="L37" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="AC37" s="17"/>
-      <c r="AV37" s="12"/>
+      <c r="AC37" s="20"/>
+      <c r="AV37" s="15"/>
     </row>
     <row r="38" spans="11:48">
       <c r="L38" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="AV38" s="12"/>
+      <c r="AV38" s="15"/>
     </row>
     <row r="39" spans="11:48">
       <c r="L39" s="11" t="s">
@@ -8180,6 +8215,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B18:AE20"/>
+    <mergeCell ref="AF18:AG20"/>
+    <mergeCell ref="AH18:AJ20"/>
+    <mergeCell ref="AO18:AO20"/>
+    <mergeCell ref="AP18:AP20"/>
+    <mergeCell ref="AQ18:AU20"/>
+    <mergeCell ref="AV18:AV20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="AK18:AN20"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="AC21:AC28"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="S21:S28"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="U21:U28"/>
+    <mergeCell ref="V21:V28"/>
+    <mergeCell ref="W21:W28"/>
+    <mergeCell ref="X21:X28"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="Z21:Z28"/>
+    <mergeCell ref="AA21:AA28"/>
+    <mergeCell ref="AB21:AB28"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AD21:AD28"/>
+    <mergeCell ref="AE21:AE28"/>
+    <mergeCell ref="AF21:AF28"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AJ21:AJ28"/>
+    <mergeCell ref="AH21:AH28"/>
     <mergeCell ref="AV21:AV28"/>
     <mergeCell ref="K30:K35"/>
     <mergeCell ref="L30:L35"/>
@@ -8196,52 +8277,6 @@
     <mergeCell ref="AL21:AL28"/>
     <mergeCell ref="AM21:AM28"/>
     <mergeCell ref="AN21:AN28"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AD21:AD28"/>
-    <mergeCell ref="AE21:AE28"/>
-    <mergeCell ref="AF21:AF28"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AJ21:AJ28"/>
-    <mergeCell ref="AH21:AH28"/>
-    <mergeCell ref="X21:X28"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="Z21:Z28"/>
-    <mergeCell ref="AA21:AA28"/>
-    <mergeCell ref="AB21:AB28"/>
-    <mergeCell ref="AC21:AC28"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="S21:S28"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="U21:U28"/>
-    <mergeCell ref="V21:V28"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="F21:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="H21:H28"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="AO18:AO20"/>
-    <mergeCell ref="AP18:AP20"/>
-    <mergeCell ref="AQ18:AU20"/>
-    <mergeCell ref="AV18:AV20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B18:AE20"/>
-    <mergeCell ref="AF18:AG20"/>
-    <mergeCell ref="AH18:AJ20"/>
-    <mergeCell ref="AK18:AN20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8252,8 +8287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F3:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8557,29 +8592,29 @@
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CATEGORIA,</v>
+        <v>CD_FORNECEDOR,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>CD_FORNECEDOR,</v>
+        <v>VL_COMPRA,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="6" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COMPRA,</v>
+        <v>CD_CATEGORIA,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
